--- a/data/trans_bre/P44_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P44_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,5</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,81</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>292,39%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>761,94%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,40 +694,50 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 36,22</t>
+          <t>-3,59; 7,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 25,92</t>
+          <t>-6,38; 4,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 47,42</t>
+          <t>1,42; 7,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,16; 57,5</t>
+          <t>1,4; 6,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 123,54</t>
+          <t>-7,82; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,19; 108,35</t>
+          <t>-38,99; 159,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>-71,87; 126,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,52</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,1%</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>-4,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,65%</t>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 15,93</t>
+          <t>-10,45; 5,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 26,22</t>
+          <t>-1,08; 11,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 21,92</t>
+          <t>-5,06; 6,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 9,02</t>
+          <t>-3,88; 6,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 70,42</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 128,23</t>
+          <t>-65,74; 100,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 88,81</t>
+          <t>-18,78; 236,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 30,94</t>
+          <t>-47,36; 169,74</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-45,62; 159,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-24,8</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,33</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-43,02%</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,08%</t>
+          <t>-17,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>-12,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>44,04%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>48,43%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>86,13%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-42,69; -3,51</t>
+          <t>-8,47; 3,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 14,09</t>
+          <t>-8,46; 3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 16,24</t>
+          <t>-2,1; 3,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 17,84</t>
+          <t>-1,48; 3,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,26; -7,09</t>
+          <t>-1,36; 3,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,34; 88,34</t>
+          <t>-56,3; 47,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,38; 125,65</t>
+          <t>-65,91; 93,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-58,79; 182,05</t>
+          <t>-45,66; 300,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-48,82; 459,93</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,06%</t>
+          <t>63,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,36%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-23,61%</t>
+          <t>81,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,52%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 13,64</t>
+          <t>-0,77; 7,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 3,47</t>
+          <t>-3,09; 3,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 13,96</t>
+          <t>-0,7; 4,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 12,94</t>
+          <t>-3,75; 3,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 59,47</t>
+          <t>-2,74; 3,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,17; 21,64</t>
+          <t>-15,23; 210,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,45; 126,39</t>
+          <t>-57,09; 148,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,35; 96,27</t>
+          <t>-35,01; 409,52</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-68,27; 239,52</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-60,34; 278,76</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,31%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-50,4%</t>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-47,68%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>95,23%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 22,56</t>
+          <t>-3,21; 3,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 27,53</t>
+          <t>-1,94; 5,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 15,96</t>
+          <t>-1,89; 2,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 6,37</t>
+          <t>-3,24; 1,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-44,15; 195,83</t>
+          <t>-1,04; 3,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 440,6</t>
+          <t>-52,84; 171,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-82,69; 748,3</t>
+          <t>-46,78; 365,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 102,01</t>
+          <t>-84,37; 545,02</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1168,40 +1294,50 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 6,65</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 0,0</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 0,0</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; 0,0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>36,3%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 5,88</t>
+          <t>-2,02; 2,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 6,14</t>
+          <t>-1,62; 2,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 10,43</t>
+          <t>-0,49; 2,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 5,25</t>
+          <t>-1,08; 1,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 19,02</t>
+          <t>-0,74; 1,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 25,57</t>
+          <t>-25,85; 40,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-32,89; 56,65</t>
+          <t>-27,43; 59,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-46,12; 26,76</t>
+          <t>-17,27; 119,29</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-29,6; 97,6</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-45,96; 188,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
